--- a/Input/April/benefits.xlsx
+++ b/Input/April/benefits.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="146">
   <si>
     <t xml:space="preserve">PlanName</t>
   </si>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t xml:space="preserve">rateIn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">planCopay</t>
   </si>
   <si>
     <t xml:space="preserve">Elite (IP)/ Extensive(OP)</t>
@@ -313,6 +316,9 @@
   </si>
   <si>
     <t xml:space="preserve">USD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">single</t>
   </si>
   <si>
     <t xml:space="preserve">Essential (IP/OP)</t>
@@ -411,6 +417,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Nil co-pay ^   30% co-pay on ALL OP services within the Classic network ^  50% co-pay on ALL OP services within the Premium network - </t>
     </r>
@@ -420,6 +427,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Elite (IP)/ Essential (OP),</t>
     </r>
@@ -429,6 +437,7 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Essential (IP) / Extensive (OP),Essential (IP/OP),Essential (IP) / Elite (OP),Extensive (IP/OP),Extensive (IP) / Essential (OP),Extensive (IP) / Elite(OP),Elite (IP/OP),</t>
     </r>
@@ -438,6 +447,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Elite (IP)/ Extensive(OP)</t>
     </r>
@@ -519,9 +529,6 @@
   </si>
   <si>
     <t xml:space="preserve">Nil co-pay / 30% co-pay on ALL OP services within the Classic network / 50% co-pay on ALL OP services within the Premium network</t>
-  </si>
-  <si>
-    <t xml:space="preserve">`</t>
   </si>
 </sst>
 </file>
@@ -565,6 +572,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -578,12 +586,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -674,10 +684,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BV17"/>
+  <dimension ref="A1:BW11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BP1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BS5" activeCellId="0" sqref="BS5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BR1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BW2" activeCellId="0" sqref="BW2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -687,7 +697,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="68" style="0" width="39.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="69" min="69" style="0" width="20.7"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="70" min="70" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="71" style="0" width="172.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="71" style="0" width="172.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="72" style="0" width="33.63"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="73" style="0" width="11.52"/>
   </cols>
@@ -887,1660 +897,1661 @@
       <c r="BV1" s="0" t="s">
         <v>58</v>
       </c>
+      <c r="BW1" s="0" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="125.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
       <c r="AF2" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
       <c r="AJ2" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK2" s="2"/>
       <c r="AL2" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM2" s="2"/>
       <c r="AN2" s="2"/>
       <c r="AO2" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AP2" s="2"/>
       <c r="AQ2" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AW2" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AX2" s="2"/>
       <c r="AY2" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BA2" s="2"/>
       <c r="BB2" s="2"/>
       <c r="BC2" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BD2" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BE2" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="BF2" s="2"/>
       <c r="BG2" s="2"/>
       <c r="BH2" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BI2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BJ2" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="BK2" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BL2" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BM2" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BN2" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BO2" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BP2" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="BQ2" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="BR2" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="BS2" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="BT2" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="BU2" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="BV2" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
+      </c>
+      <c r="BW2" s="0" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="120" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
       <c r="AB3" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
       <c r="AF3" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
       <c r="AI3" s="2"/>
       <c r="AJ3" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK3" s="2"/>
       <c r="AL3" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AM3" s="2"/>
       <c r="AN3" s="2"/>
       <c r="AO3" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AP3" s="2"/>
       <c r="AQ3" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AU3" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AW3" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AX3" s="2"/>
       <c r="AY3" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BA3" s="2"/>
       <c r="BB3" s="2"/>
       <c r="BC3" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BD3" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BE3" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="BF3" s="2"/>
       <c r="BG3" s="2"/>
       <c r="BH3" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BI3" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="BJ3" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="BK3" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BM3" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BN3" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BO3" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BS3" s="6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="BT3" s="6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="118.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
       <c r="AF4" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
       <c r="AI4" s="2"/>
       <c r="AJ4" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK4" s="2"/>
       <c r="AL4" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AM4" s="2"/>
       <c r="AN4" s="2"/>
       <c r="AO4" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AS4" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU4" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV4" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AW4" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AX4" s="2"/>
       <c r="AY4" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AZ4" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BA4" s="2"/>
       <c r="BB4" s="2"/>
       <c r="BC4" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BD4" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BE4" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="BF4" s="2"/>
       <c r="BG4" s="2"/>
       <c r="BH4" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BI4" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BJ4" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="BK4" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BL4" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BM4" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BN4" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BO4" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BS4" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="93.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
       <c r="AB5" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
       <c r="AF5" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
       <c r="AJ5" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK5" s="2"/>
       <c r="AL5" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AM5" s="2"/>
       <c r="AN5" s="2"/>
       <c r="AO5" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AR5" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AS5" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AU5" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV5" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AW5" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AX5" s="2"/>
       <c r="AY5" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AZ5" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BA5" s="2"/>
       <c r="BB5" s="2"/>
       <c r="BC5" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BD5" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BE5" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="BF5" s="2"/>
       <c r="BG5" s="2"/>
       <c r="BH5" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BI5" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BJ5" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="BK5" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BL5" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BM5" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BN5" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BO5" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BS5" s="6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="89.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
       <c r="AB6" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
       <c r="AF6" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
       <c r="AJ6" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK6" s="2"/>
       <c r="AL6" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AM6" s="2"/>
       <c r="AN6" s="2"/>
       <c r="AO6" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AR6" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AS6" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU6" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV6" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AW6" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AX6" s="2"/>
       <c r="AY6" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AZ6" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BA6" s="2"/>
       <c r="BB6" s="2"/>
       <c r="BC6" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BD6" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BE6" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="BF6" s="2"/>
       <c r="BG6" s="2"/>
       <c r="BH6" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BI6" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BJ6" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="BK6" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BL6" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BM6" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BN6" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BO6" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BS6" s="6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="110.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
       <c r="AJ7" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK7" s="2"/>
       <c r="AL7" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AM7" s="2"/>
       <c r="AN7" s="2"/>
       <c r="AO7" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AR7" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AS7" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AU7" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV7" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AW7" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AX7" s="2"/>
       <c r="AY7" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AZ7" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BA7" s="2"/>
       <c r="BB7" s="2"/>
       <c r="BC7" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BD7" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BE7" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="BF7" s="2"/>
       <c r="BG7" s="2"/>
       <c r="BH7" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BI7" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BJ7" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="BK7" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BL7" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BM7" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BN7" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BO7" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BT7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="93.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
       <c r="AF8" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AG8" s="2"/>
       <c r="AH8" s="2"/>
       <c r="AI8" s="2"/>
       <c r="AJ8" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK8" s="2"/>
       <c r="AL8" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AM8" s="2"/>
       <c r="AN8" s="2"/>
       <c r="AO8" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AR8" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AS8" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AT8" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AU8" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV8" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AW8" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AX8" s="2"/>
       <c r="AY8" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AZ8" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BA8" s="2"/>
       <c r="BB8" s="2"/>
       <c r="BC8" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BD8" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BE8" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="BF8" s="2"/>
       <c r="BG8" s="2"/>
       <c r="BH8" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BI8" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BJ8" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="BK8" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BL8" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BM8" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BN8" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BO8" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BT8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="121.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
       <c r="AF9" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AG9" s="2"/>
       <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
       <c r="AJ9" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK9" s="2"/>
       <c r="AL9" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM9" s="2"/>
       <c r="AN9" s="2"/>
       <c r="AO9" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AP9" s="2"/>
       <c r="AQ9" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AR9" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AS9" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AU9" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV9" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AW9" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AX9" s="2"/>
       <c r="AY9" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AZ9" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BA9" s="2"/>
       <c r="BB9" s="2"/>
       <c r="BC9" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BD9" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BE9" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="BF9" s="2"/>
       <c r="BG9" s="2"/>
       <c r="BH9" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BI9" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BJ9" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="BK9" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BL9" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BM9" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BN9" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BO9" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BT9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="125.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
       <c r="AJ10" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK10" s="2"/>
       <c r="AL10" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM10" s="2"/>
       <c r="AN10" s="2"/>
       <c r="AO10" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AR10" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AS10" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AT10" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AU10" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV10" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AW10" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AX10" s="2"/>
       <c r="AY10" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AZ10" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BA10" s="2"/>
       <c r="BB10" s="2"/>
       <c r="BC10" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BD10" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BE10" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="BF10" s="2"/>
       <c r="BG10" s="2"/>
       <c r="BH10" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BI10" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BJ10" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="BK10" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BL10" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BM10" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BN10" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BO10" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BT10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="108.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
       <c r="AB11" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
       <c r="AF11" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
       <c r="AJ11" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK11" s="2"/>
       <c r="AL11" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AM11" s="2"/>
       <c r="AN11" s="2"/>
       <c r="AO11" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AP11" s="2"/>
       <c r="AQ11" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AR11" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AS11" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AT11" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AU11" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV11" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AW11" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AX11" s="2"/>
       <c r="AY11" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AZ11" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BA11" s="2"/>
       <c r="BB11" s="2"/>
       <c r="BC11" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BD11" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BE11" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="BF11" s="2"/>
       <c r="BG11" s="2"/>
       <c r="BH11" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="BI11" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="BJ11" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="BK11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BL11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BM11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BN11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BO11" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="BL11" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="BM11" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="BN11" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="BO11" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D17" s="0" t="s">
-        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/Input/April/benefits.xlsx
+++ b/Input/April/benefits.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="120">
   <si>
     <t xml:space="preserve">PlanName</t>
   </si>
@@ -154,30 +154,6 @@
     <t xml:space="preserve">Monthly Surcharge</t>
   </si>
   <si>
-    <t xml:space="preserve">Filters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Area of cover</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Co-pay/excess</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In-patient only</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In-patient / In &amp; Out-patient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Routine Maternity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wellness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optical</t>
-  </si>
-  <si>
     <t xml:space="preserve">startDate</t>
   </si>
   <si>
@@ -202,37 +178,125 @@
     <t xml:space="preserve">planCopay</t>
   </si>
   <si>
-    <t xml:space="preserve">Elite (IP)/ Extensive(OP)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USD 5,000,000</t>
+    <t xml:space="preserve">Core</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USD 200,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worldwide excluding USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mednet Premium/Mednet Classic/Mednet Green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coverage limited to Green nework in UAE and GCC countires
+*Out of our preferred network in the United States: 50% co-insurance will apply</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered up to USD 41,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered up to USD 41,000 subject to declaration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Private Room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered in full</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered up to USD 50,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medicines covered up to USD 3,000 with NIL co-pay and diagnostics &amp; lab tests covered up to USD 41,000 with NIL co-pay. Consultations covered with NIL co-pay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered up to USD 3,000
+*NIL co-pay at selected pharmacies 
+20% co-pay outside network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered as per MOH schedule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered up to OP limit of USD 41,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered up to 6 sessions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP- Covered up to 8 visits and 3 scans
+IP- Covered up to USD 2,750 with NIL co-pay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No wait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered up to USD 2,750 with NIL co-pay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered up to 30 days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minor dental- Covered up to USD 150 with NIL co-pay
+Major dental- Not Available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minor dental- No wait
+Major dental- 10 months wait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not Available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diabetic Screening- Covered in full
+Medical Checkup- Not Available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP and OP- Covered up to USD 2,750</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NE/Dubai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">april</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15% co-pay with USD 20 per visit max on all OP Services - Core</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annually</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">single</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Essential (IP/OP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USD 1,000,000</t>
   </si>
   <si>
     <t xml:space="preserve">Worldwide including USA/Worldwide excluding USA</t>
   </si>
   <si>
-    <t xml:space="preserve">Mednet Premium/Mednet Classic/Mednet Green</t>
-  </si>
-  <si>
     <t xml:space="preserve">Premium network : Nil
-Classic network: Nil co-copay within the Classic &amp; Green network / 30% co-pay on ALL OP services within the Premium network
-Green network: Nil co-pay within the Green network / 30% co-pay on ALL OP services within the Classic network / 50% co-pay within the Premium network
+Classic network: Nil co-copay within the Classic &amp; Green network / 30% co-pay if any visit within Premium network
+Green network: Nil co-pay within the Green network / 30% co-pay if any visit within Classic network / 50% co-pay if any visit within Premium network
 *Out of the network available in the UAE and in the GCC countries- reimbursed up to highest cost provider within your selected network
 Out of our preferred network in the United States: 50% co-insurance will apply</t>
   </si>
   <si>
-    <t xml:space="preserve">Covered up to USD 41,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered up to USD 41,000 subject to declaration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Private Room</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered in full</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hospitalization &amp; Surgery- Covered in full
 Expenses to remove and organ from a donor- Covered up to USD 20,000</t>
   </si>
@@ -240,30 +304,41 @@
     <t xml:space="preserve">Medicines and diagnostics &amp; lab tets covered in full with NIL co-pay. Consultations covered in full with co-pay as selected</t>
   </si>
   <si>
-    <t xml:space="preserve">Covered as per MOH schedule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered up to 20 sessions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP- Covered up to USD 8,000 with 10% co-pay *In addition to DHA mandatory cover</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 months wait</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered up to 30 days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minor and major dental- Covered up to USD 4,500 with NIL co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minor dental- No wait
-Major dental- 10 months wait</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eye examination- Covered up to USD 200
-Prescription contact lenses and lenses- Covered up to USD 250</t>
+    <t xml:space="preserve">Covered up to 25 sessions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP- Covered up to 8 visits and 3 scans
+IP- Covered up to USD 2,750 with NIL co-pay
+(Enhanced maternity available)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diabetic Screening- Covered in full
+Medical Checkup- Covered up to USD 250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered up to USD 1,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP- Covered in full up to 15 days
+OP- Covered up to USD 3,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available with Mental and Wellbeing support services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nil - Core</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worldwide including USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Essential (IP) / Extensive (OP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered up to 30 sessions</t>
   </si>
   <si>
     <t xml:space="preserve">Diabetic Screening- Covered in full
@@ -277,116 +352,19 @@
 OP- Covered up to USD 4,000</t>
   </si>
   <si>
-    <t xml:space="preserve">Available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not Available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Premium network selection) : Nil or 15% with USD 20 per visit max on all OP Services
-(Classic network selection): Nil co-copay within Classic &amp; Green network / 30% co-pay on ALL OP services within Premium network
-(Green network selection): Nil co-pay within Green network / 30% co-pay on ALL OP services within Classic network / 50% co-pay within Premium network</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NE/Dubai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">april</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15% co-pay with USD 20 per visit max on all OP Services - Core</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Worldwide excluding USA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annually</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">single</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Essential (IP/OP)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USD 1,000,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered up to USD 4,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered up to USD 1,500
-*maximum 10 sessions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered up to USD 4,000 with 10% co-pay *In addition to DHA mandatory cover</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minor dental- Covered up to USD 300 with NIL co-pay
-Major dental- Covered up to USD 1,000 with NIL co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eye examination- Covered up to USD 100
-Prescription contact lenses and lenses- Covered up to USD 180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diabetic Screening- Covered in full
-Medical Checkup- Covered up to USD 250</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered up to USD 1,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP- Covered in full up to 15 days
-OP- Covered up to USD 3,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Premium network selection) : "Nil" or "15% with USD 20 per visit max on all OP Services"
-(Classic network selection): "Nil co-copay within Classic &amp; Green network / 30% co-pay on ALL OP services within Premium network"
-(Green network selection): "Nil co-pay within Green network / 30% co-pay on ALL OP services within Classic network / 50% co-pay within Premium network"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nil - Core</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Worldwide including USA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Essential (IP) / Extensive (OP)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nil co-pay within  Green network ^  30% co-pay on ALL OP services within Classic network ^  50% co-pay within Premium network - Core</t>
   </si>
   <si>
     <t xml:space="preserve">Essential (IP) / Elite (OP)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered up to 25 sessions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eye examination- Covered up to USD 200
-Prescription contact lenses and lenses- Covered up to USD 500</t>
   </si>
   <si>
     <t xml:space="preserve">Diabetic Screening- Covered in full
 Medical Checkup- Covered up to USD 1,700</t>
   </si>
   <si>
+    <t xml:space="preserve">Covered up to USD 4,000</t>
+  </si>
+  <si>
     <t xml:space="preserve">IP- Covered in full up to 30 days
 OP- Covered up to USD 4,500</t>
   </si>
@@ -398,17 +376,6 @@
   </si>
   <si>
     <t xml:space="preserve">USD 2,500,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP- Covered up to USD 6,000 with 10% co-pay *In addition to DHA mandatory cover</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minor dental- Covered up to USD 1,250 with NIL co-pay
-Major dental- Covered up to USD 2,250 with NIL co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diabetic Screening- Covered in full
-Meddical Checkup- Covered up to USD 1,000</t>
   </si>
   <si>
     <r>
@@ -462,8 +429,7 @@
     <t xml:space="preserve">Elite (IP/OP)</t>
   </si>
   <si>
-    <t xml:space="preserve">Diabetic Screening- Covered in full
-Meddical Checkup- Covered up to USD 1,700</t>
+    <t xml:space="preserve">USD 5,000,000</t>
   </si>
   <si>
     <t xml:space="preserve">IP- Covered in full up to 20 days
@@ -473,62 +439,7 @@
     <t xml:space="preserve">Elite (IP)/ Essential (OP)</t>
   </si>
   <si>
-    <t xml:space="preserve">Covere up to USD 4,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Core</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USD 200,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mednet Green</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Green network: Nil co-pay / 30% co-pay on ALL OP services within the Classic network / 50% co-pay on ALL OP services within the Premium network
-*Out of the network available in the UAE and in the GCC countries- reimbursed up to highest cost provider within your selected network
-Out of our preferred network in the United States: 50% co-insurance will apply</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered up to USD 50,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medicines covered up to USD 3,000 with NIL co-pay and diagnostics &amp; lab tests covered up to USD 41,000 with NIL co-pay. Consultations covered with NIL co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered up to USD 3,000
-*NIL co-pay at selected pharmacies 
-20% co-pay outside network</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered up to OP limit of USD 41,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered up to 6 sessions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OP- Covered up to 8 visits and 3 scans
-IP- Covered up to USD 2,750 with 10% co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No wait</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered up to USD 2,750 with 10% co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minor dental- Covered up to USD 150 with NIL co-pay
-Major dental- Not Available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diabetic Screening- Covered in full
-Medical Checkup- Not Available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP and OP- Covered up to USD 2,750</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nil co-pay / 30% co-pay on ALL OP services within the Classic network / 50% co-pay on ALL OP services within the Premium network</t>
+    <t xml:space="preserve">Elite (IP)/ Extensive(OP)</t>
   </si>
 </sst>
 </file>
@@ -544,7 +455,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -565,14 +475,6 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -583,6 +485,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -638,7 +547,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -651,19 +560,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -684,25 +589,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BW11"/>
+  <dimension ref="A1:BN11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BR1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BW2" activeCellId="0" sqref="BW2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.34"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="67" min="2" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="68" style="0" width="39.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="69" min="69" style="0" width="20.7"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="70" min="70" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="71" style="0" width="172.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="72" style="0" width="33.63"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="73" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="51.78"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="35.29"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="80.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -810,1748 +712,1494 @@
       <c r="AQ1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AR1" s="2"/>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AX1" s="2"/>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="2"/>
+      <c r="BA1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="BA1" s="2"/>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="BF1" s="2"/>
-      <c r="BG1" s="1" t="s">
+      <c r="BG1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BH1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BI1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BK1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BL1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="BM1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BM1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BN1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="BP1" s="0" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BQ1" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BR1" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BS1" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="BT1" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="BU1" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="BV1" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="BW1" s="0" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="125.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
       <c r="AF2" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
       <c r="AJ2" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK2" s="2"/>
       <c r="AL2" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AM2" s="2"/>
       <c r="AN2" s="2"/>
       <c r="AO2" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AP2" s="2"/>
       <c r="AQ2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR2" s="2"/>
+      <c r="AS2" s="2"/>
+      <c r="AT2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ2" s="2"/>
+      <c r="BA2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC2" s="2"/>
+      <c r="BD2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="BH2" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="BI2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="AS2" s="1" t="s">
+      <c r="BJ2" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="AT2" s="1" t="s">
+      <c r="BK2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="BL2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="AU2" s="1" t="s">
+      <c r="BM2" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="AV2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AX2" s="2"/>
-      <c r="AY2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="BA2" s="2"/>
-      <c r="BB2" s="2"/>
-      <c r="BC2" s="4" t="s">
+      <c r="BN2" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="BD2" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BE2" s="1" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="125" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="BF2" s="2"/>
-      <c r="BG2" s="2"/>
-      <c r="BH2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BI2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="BJ2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BK2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BL2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BM2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BN2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BO2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BP2" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="BQ2" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="BR2" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="BS2" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="BT2" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="BU2" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="BV2" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="BW2" s="0" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="120" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="1" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="1" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
       <c r="AB3" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
       <c r="AF3" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
       <c r="AI3" s="2"/>
       <c r="AJ3" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK3" s="2"/>
       <c r="AL3" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="AM3" s="2"/>
       <c r="AN3" s="2"/>
       <c r="AO3" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AP3" s="2"/>
       <c r="AQ3" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>104</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="AR3" s="2"/>
+      <c r="AS3" s="2"/>
       <c r="AT3" s="1" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="AU3" s="1" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="AW3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AX3" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="AY3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AZ3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="BA3" s="2"/>
-      <c r="BB3" s="2"/>
-      <c r="BC3" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BD3" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
+      </c>
+      <c r="AZ3" s="2"/>
+      <c r="BA3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC3" s="2"/>
+      <c r="BD3" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="BE3" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BF3" s="2"/>
-      <c r="BG3" s="2"/>
-      <c r="BH3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BI3" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="BJ3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG3" s="3"/>
+      <c r="BH3" s="3"/>
+      <c r="BI3" s="3"/>
+      <c r="BJ3" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="BK3" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="BL3" s="3"/>
+      <c r="BM3" s="3"/>
+      <c r="BN3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="163.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BK3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BL3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BM3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BN3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BO3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BS3" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="BT3" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="118.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="1" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="1" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
       <c r="AF4" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
       <c r="AI4" s="2"/>
       <c r="AJ4" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK4" s="2"/>
       <c r="AL4" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="AM4" s="2"/>
       <c r="AN4" s="2"/>
       <c r="AO4" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AR4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AS4" s="1" t="s">
-        <v>80</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="AR4" s="2"/>
+      <c r="AS4" s="2"/>
       <c r="AT4" s="1" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AU4" s="1" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="AV4" s="1" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="AW4" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AX4" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AX4" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="AY4" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AZ4" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="BA4" s="2"/>
-      <c r="BB4" s="2"/>
-      <c r="BC4" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BD4" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
+      </c>
+      <c r="AZ4" s="2"/>
+      <c r="BA4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC4" s="2"/>
+      <c r="BD4" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="BE4" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BF4" s="2"/>
-      <c r="BG4" s="2"/>
-      <c r="BH4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BI4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG4" s="3"/>
+      <c r="BH4" s="3"/>
+      <c r="BI4" s="3"/>
+      <c r="BJ4" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK4" s="3"/>
+      <c r="BL4" s="3"/>
+      <c r="BM4" s="3"/>
+      <c r="BN4" s="3"/>
+    </row>
+    <row r="5" customFormat="false" ht="160" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="BJ4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BK4" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BL4" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BM4" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BN4" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BO4" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BS4" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="93.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="1" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="1" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
       <c r="AB5" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
       <c r="AF5" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
       <c r="AJ5" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK5" s="2"/>
       <c r="AL5" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="AM5" s="2"/>
       <c r="AN5" s="2"/>
       <c r="AO5" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AR5" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AS5" s="1" t="s">
-        <v>98</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="AR5" s="2"/>
+      <c r="AS5" s="2"/>
       <c r="AT5" s="1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="AU5" s="1" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="AV5" s="1" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="AW5" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AX5" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AX5" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="AY5" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AZ5" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="BA5" s="2"/>
-      <c r="BB5" s="2"/>
-      <c r="BC5" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BD5" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
+      </c>
+      <c r="AZ5" s="2"/>
+      <c r="BA5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC5" s="2"/>
+      <c r="BD5" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="BE5" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BF5" s="2"/>
-      <c r="BG5" s="2"/>
-      <c r="BH5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BI5" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="BJ5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG5" s="3"/>
+      <c r="BH5" s="3"/>
+      <c r="BI5" s="3"/>
+      <c r="BJ5" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="BK5" s="3"/>
+      <c r="BL5" s="3"/>
+      <c r="BM5" s="3"/>
+      <c r="BN5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="135" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BK5" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BL5" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BM5" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BN5" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BO5" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BS5" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="89.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="1" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="1" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="1" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
       <c r="AB6" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
       <c r="AF6" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
       <c r="AJ6" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK6" s="2"/>
       <c r="AL6" s="1" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="AM6" s="2"/>
       <c r="AN6" s="2"/>
       <c r="AO6" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AR6" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AS6" s="1" t="s">
-        <v>80</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="AR6" s="2"/>
+      <c r="AS6" s="2"/>
       <c r="AT6" s="1" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AU6" s="1" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="AV6" s="1" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="AW6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AX6" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AX6" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="AY6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AZ6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="BA6" s="2"/>
-      <c r="BB6" s="2"/>
-      <c r="BC6" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BD6" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
+      </c>
+      <c r="AZ6" s="2"/>
+      <c r="BA6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC6" s="2"/>
+      <c r="BD6" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="BE6" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BF6" s="2"/>
-      <c r="BG6" s="2"/>
-      <c r="BH6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BI6" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="BJ6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG6" s="3"/>
+      <c r="BH6" s="3"/>
+      <c r="BI6" s="3"/>
+      <c r="BJ6" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="BK6" s="3"/>
+      <c r="BL6" s="3"/>
+      <c r="BM6" s="3"/>
+      <c r="BN6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="116.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BK6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BL6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BM6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BN6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BO6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BS6" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="110.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="1" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="1" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="1" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
       <c r="AJ7" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK7" s="2"/>
       <c r="AL7" s="1" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="AM7" s="2"/>
       <c r="AN7" s="2"/>
       <c r="AO7" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AR7" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AS7" s="1" t="s">
-        <v>104</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="AR7" s="2"/>
+      <c r="AS7" s="2"/>
       <c r="AT7" s="1" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="AU7" s="1" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AV7" s="1" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="AW7" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AX7" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AX7" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="AY7" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AZ7" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="BA7" s="2"/>
-      <c r="BB7" s="2"/>
-      <c r="BC7" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BD7" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
+      </c>
+      <c r="AZ7" s="2"/>
+      <c r="BA7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC7" s="2"/>
+      <c r="BD7" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="BE7" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BF7" s="2"/>
-      <c r="BG7" s="2"/>
-      <c r="BH7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BI7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="BJ7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF7" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="160" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BK7" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BL7" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BM7" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BN7" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BO7" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BT7" s="1"/>
-    </row>
-    <row r="8" customFormat="false" ht="93.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="1" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="1" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="1" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
       <c r="AF8" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="AG8" s="2"/>
       <c r="AH8" s="2"/>
       <c r="AI8" s="2"/>
       <c r="AJ8" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK8" s="2"/>
       <c r="AL8" s="1" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="AM8" s="2"/>
       <c r="AN8" s="2"/>
       <c r="AO8" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AR8" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AS8" s="1" t="s">
-        <v>98</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="AR8" s="2"/>
+      <c r="AS8" s="2"/>
       <c r="AT8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AU8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AV8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AW8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AY8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ8" s="2"/>
+      <c r="BA8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC8" s="2"/>
+      <c r="BD8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BE8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF8" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="206.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="AU8" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AV8" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AW8" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AX8" s="2"/>
-      <c r="AY8" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AZ8" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="BA8" s="2"/>
-      <c r="BB8" s="2"/>
-      <c r="BC8" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BD8" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BE8" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BF8" s="2"/>
-      <c r="BG8" s="2"/>
-      <c r="BH8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BI8" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="BJ8" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BK8" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BL8" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BM8" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BN8" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BO8" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BT8" s="1"/>
-    </row>
-    <row r="9" customFormat="false" ht="121.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="1" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="1" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="1" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
       <c r="AF9" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="AG9" s="2"/>
       <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
       <c r="AJ9" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK9" s="2"/>
       <c r="AL9" s="1" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AM9" s="2"/>
       <c r="AN9" s="2"/>
       <c r="AO9" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AP9" s="2"/>
       <c r="AQ9" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AR9" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AS9" s="1" t="s">
-        <v>98</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="AR9" s="2"/>
+      <c r="AS9" s="2"/>
       <c r="AT9" s="1" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="AU9" s="1" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="AV9" s="1" t="s">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="AW9" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AX9" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AX9" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="AY9" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AZ9" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="BA9" s="2"/>
-      <c r="BB9" s="2"/>
-      <c r="BC9" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BD9" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
+      </c>
+      <c r="AZ9" s="2"/>
+      <c r="BA9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC9" s="2"/>
+      <c r="BD9" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="BE9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BF9" s="2"/>
-      <c r="BG9" s="2"/>
-      <c r="BH9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BI9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="BJ9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF9" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="161.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BK9" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BL9" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BM9" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BN9" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BO9" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BT9" s="1"/>
-    </row>
-    <row r="10" customFormat="false" ht="125.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="1" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="1" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>129</v>
+        <v>60</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="1" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
       <c r="AJ10" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK10" s="2"/>
       <c r="AL10" s="1" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AM10" s="2"/>
       <c r="AN10" s="2"/>
       <c r="AO10" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AR10" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AS10" s="1" t="s">
-        <v>104</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="AR10" s="2"/>
+      <c r="AS10" s="2"/>
       <c r="AT10" s="1" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="AU10" s="1" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AV10" s="1" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="AW10" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AX10" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AX10" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="AY10" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AZ10" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="BA10" s="2"/>
-      <c r="BB10" s="2"/>
-      <c r="BC10" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BD10" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
+      </c>
+      <c r="AZ10" s="2"/>
+      <c r="BA10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC10" s="2"/>
+      <c r="BD10" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="BE10" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BF10" s="2"/>
-      <c r="BG10" s="2"/>
-      <c r="BH10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BI10" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="BJ10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF10" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="160" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BK10" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BL10" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BM10" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BN10" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BO10" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BT10" s="1"/>
-    </row>
-    <row r="11" customFormat="false" ht="108.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>132</v>
+        <v>55</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="1" t="s">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>134</v>
+        <v>60</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="1" t="s">
-        <v>135</v>
+        <v>89</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>136</v>
+        <v>60</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>137</v>
+        <v>60</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="1" t="s">
-        <v>139</v>
+        <v>91</v>
       </c>
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
       <c r="AB11" s="1" t="s">
-        <v>140</v>
+        <v>68</v>
       </c>
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
       <c r="AF11" s="1" t="s">
-        <v>141</v>
+        <v>69</v>
       </c>
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
       <c r="AJ11" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK11" s="2"/>
       <c r="AL11" s="1" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="AM11" s="2"/>
       <c r="AN11" s="2"/>
       <c r="AO11" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AP11" s="2"/>
       <c r="AQ11" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AR11" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AS11" s="1" t="s">
-        <v>84</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="AR11" s="2"/>
+      <c r="AS11" s="2"/>
       <c r="AT11" s="1" t="s">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="AU11" s="1" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="AV11" s="1" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="AW11" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AX11" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AX11" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="AY11" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AZ11" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="BA11" s="2"/>
-      <c r="BB11" s="2"/>
-      <c r="BC11" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BD11" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
+      </c>
+      <c r="AZ11" s="2"/>
+      <c r="BA11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC11" s="2"/>
+      <c r="BD11" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="BE11" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BF11" s="2"/>
-      <c r="BG11" s="2"/>
-      <c r="BH11" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="BI11" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="BJ11" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="BK11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BL11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BM11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BN11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BO11" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
+      </c>
+      <c r="BF11" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
